--- a/Report/Tramstops85.xlsx
+++ b/Report/Tramstops85.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7F3A5-80DC-4DA8-95F0-17B4B3657F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A5017-157C-4503-811C-AEB8115C9BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Hyper-heuristic</t>
   </si>
@@ -60,142 +60,10 @@
     <t>PLEASE ADD MORE ROWS DEPENDING ON THE NUMBER OF TRIALS PERFORMED!</t>
   </si>
   <si>
-    <t>(Seed)</t>
-  </si>
-  <si>
-    <t>13032020l</t>
-  </si>
-  <si>
     <t>Roulette Wheel Selection</t>
   </si>
   <si>
     <t>Simulated Annealing</t>
-  </si>
-  <si>
-    <t>4.586113767*10^-01</t>
-  </si>
-  <si>
-    <t>15431504l</t>
-  </si>
-  <si>
-    <t>4.557248598*10^-01</t>
-  </si>
-  <si>
-    <t>943314l</t>
-  </si>
-  <si>
-    <t>4.683836105*10^-01</t>
-  </si>
-  <si>
-    <t>1l</t>
-  </si>
-  <si>
-    <t>4.748834705*10^-01</t>
-  </si>
-  <si>
-    <t>42l</t>
-  </si>
-  <si>
-    <t>4.822649190*10^-01</t>
-  </si>
-  <si>
-    <t>739l</t>
-  </si>
-  <si>
-    <t>4.833655398*10^-01</t>
-  </si>
-  <si>
-    <t>4695l</t>
-  </si>
-  <si>
-    <t>4.795782037*10^-01</t>
-  </si>
-  <si>
-    <t>50197l</t>
-  </si>
-  <si>
-    <t>5.042559776*10^-01</t>
-  </si>
-  <si>
-    <t>6387450l</t>
-  </si>
-  <si>
-    <t>(10sf &amp; Scientific notation)</t>
-  </si>
-  <si>
-    <t>4.680330539*10^-01</t>
-  </si>
-  <si>
-    <t>13l</t>
-  </si>
-  <si>
-    <t>4.970202287*10^-01</t>
-  </si>
-  <si>
-    <t>7l</t>
-  </si>
-  <si>
-    <t>4.850627447*10^-01</t>
-  </si>
-  <si>
-    <t>4063l</t>
-  </si>
-  <si>
-    <t>4.698724242*10^-01</t>
-  </si>
-  <si>
-    <t>999l</t>
-  </si>
-  <si>
-    <t>60165l</t>
-  </si>
-  <si>
-    <t>4.751374839*10^-01</t>
-  </si>
-  <si>
-    <t>4.903470887*10^-01</t>
-  </si>
-  <si>
-    <t>22121110l</t>
-  </si>
-  <si>
-    <t>63690546l</t>
-  </si>
-  <si>
-    <t>4.811537116*10^-01</t>
-  </si>
-  <si>
-    <t>4.733312700*10^-01</t>
-  </si>
-  <si>
-    <t>1000l</t>
-  </si>
-  <si>
-    <t>4.892288402*10^-01</t>
-  </si>
-  <si>
-    <t>676l</t>
-  </si>
-  <si>
-    <t>8008531l</t>
-  </si>
-  <si>
-    <t>2797l</t>
-  </si>
-  <si>
-    <t>4.738223616*10^-01</t>
-  </si>
-  <si>
-    <t>4.857882684*10^-01</t>
-  </si>
-  <si>
-    <t>15l</t>
-  </si>
-  <si>
-    <t>4.848991539*10^-01</t>
-  </si>
-  <si>
-    <t>4.779280690*10^-01</t>
   </si>
   <si>
     <t>(-1.145433153,52.95293399)-&gt; (-1.145507883,52.9477812)-&gt; (-1.145609889,52.9477858)-&gt; (-1.145636388,52.94684955)-&gt; (-1.145690671,52.94685244)-&gt; (-1.150109371,52.95305264)-&gt; (-1.150141015,52.9531317)-&gt; (-1.151862196,52.95518353)-&gt; (-1.15195954,52.9551382)-&gt; (-1.154890294,52.95789717)-&gt; (-1.154962613,52.95783755)-&gt; (-1.161471521,52.96241703)-&gt; (-1.161591582,52.96234443)-&gt; (-1.167161433,52.96539774)-&gt; (-1.167293755,52.96536109)-&gt; (-1.16872487,52.96736452)-&gt; (-1.171020223,52.96649391)-&gt; (-1.170386092,52.97007224)-&gt; (-1.173492294,52.97153812)-&gt; (-1.17393111,52.96984396)-&gt; (-1.177963728,52.97191709)-&gt; (-1.177915032,52.97197995)-&gt; (-1.178302754,52.98165789)-&gt; (-1.178425891,52.98162862)-&gt; (-1.182059044,52.98494506)-&gt; (-1.182174598,52.98489174)-&gt; (-1.189656902,52.98983922)-&gt; (-1.189810936,52.9897439)-&gt; (-1.190440075,52.98946349)-&gt; (-1.190095584,53.0061793)-&gt; (-1.187073068,53.01447405)-&gt; (-1.188588525,53.02886147)-&gt; (-1.195810134,53.03829709)-&gt; (-1.195940198,53.03826426)-&gt; (-1.195593988,52.99934798)-&gt; (-1.20070225,52.98899695)-&gt; (-1.206910611,52.98892155)-&gt; (-1.188354602,52.93726705)-&gt; (-1.188319437,52.93724225)-&gt; (-1.18359864,52.94266607)-&gt; (-1.183546896,52.9426433)-&gt; (-1.177029943,52.94388184)-&gt; (-1.165537726,52.94187653)-&gt; (-1.164820212,52.94183039)-&gt; (-1.156690934,52.94341645)-&gt; (-1.156672968,52.94337325)-&gt; (-1.150403925,52.94280418)-&gt; (-1.150355016,52.94279258)-&gt; (-1.153652801,52.93908363)-&gt; (-1.153700034,52.93909839)-&gt; (-1.15580115,52.93568516)-&gt; (-1.155700394,52.93565353)-&gt; (-1.15613964,52.9259259)-&gt; (-1.156206863,52.92592995)-&gt; (-1.157486782,52.91906101)-&gt; (-1.15755059,52.91906603)-&gt; (-1.158312479,52.91465125)-&gt; (-1.158368763,52.91465451)-&gt; (-1.170405757,52.9107112)-&gt; (-1.170502155,52.91072079)-&gt; (-1.174741611,52.90686429)-&gt; (-1.174823178,52.90687798)-&gt; (-1.176964723,52.9037277)-&gt; (-1.181267431,52.89698995)-&gt; (-1.18130033,52.89701826)-&gt; (-1.187911244,52.89694688)-&gt; (-1.193103522,52.89644113)-&gt; (-1.202236286,52.93218515)-&gt; (-1.202235069,52.93222985)-&gt; (-1.209010454,52.92787625)-&gt; (-1.215058081,52.9255317)-&gt; (-1.220052397,52.92285649)-&gt; (-1.220540036,52.9224778)-&gt; (-1.223295756,52.92126428)-&gt; (-1.22333023,52.92129065)-&gt; (-1.231344936,52.92260565)-&gt; (-1.23135823,52.92264385)-&gt; (-1.236302926,52.92152734)-&gt; (-1.236333018,52.92156178)-&gt; (-1.243110276,52.9203175)-&gt; (-1.243127724,52.92035495)-&gt; (-1.251433287,52.91954801)-&gt; (-1.251438912,52.91958705)</t>
@@ -231,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,20 +112,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -406,6 +262,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -415,7 +286,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -427,36 +298,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -467,70 +308,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -546,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -554,40 +331,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,380 +667,230 @@
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="12">
         <f>AVERAGE(B11:B31)</f>
-        <v>0.477928068912786</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.46679735552785317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <f>MIN(B11:B31)</f>
-        <v>0.45572485981060401</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.455724859810611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>0</v>
       </c>
-      <c r="B11" s="20">
-        <v>0.45861137665106699</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>0.45730754157659198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="21">
-        <v>0.45572485981060901</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>0.48622964398645901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="21">
-        <v>0.46838361048840299</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>0.455724859810611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="22">
-        <v>0.47488347048361701</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>0.45730754157659198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="22">
-        <v>0.48226491895865398</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>0.45572659653167802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="22">
-        <v>0.48336553980793101</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>0.45731399792446398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="22">
-        <v>0.479578203719498</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>0.48622964398645901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="B18" s="22">
-        <v>0.504255977609807</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>0.489180685906142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B19" s="22">
-        <v>0.46803305385476202</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>0.455724859810611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="B20" s="22">
-        <v>0.49702022874256802</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>0.45572659653167802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="22">
-        <v>0.48506274472255601</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <v>0.455724859810611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>11</v>
       </c>
-      <c r="B22" s="22">
-        <v>0.46987242419996</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
+        <v>0.48622820718767701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="B23" s="22">
-        <v>0.47513748387807703</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <v>0.48485900398983001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>13</v>
       </c>
-      <c r="B24" s="22">
-        <v>0.490347088744642</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <v>0.455724859810611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>14</v>
       </c>
-      <c r="B25" s="22">
-        <v>0.48115371155757602</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>0.467388756732455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B26" s="22">
-        <v>0.47333127000603598</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>0.48622820718767701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="22">
-        <v>0.489228840158839</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>0.47614145860188301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>17</v>
       </c>
-      <c r="B28" s="22">
-        <v>0.45572485981060401</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>0.45572659653167802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>18</v>
       </c>
-      <c r="B29" s="22">
-        <v>0.47382236160827101</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
+        <v>0.45572659653167802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>19</v>
       </c>
-      <c r="B30" s="22">
-        <v>0.485788268447994</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>20</v>
-      </c>
-      <c r="B31" s="22">
-        <v>0.48489915390703597</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="B30" s="17">
+        <v>0.45572659653167802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">

--- a/Report/Tramstops85.xlsx
+++ b/Report/Tramstops85.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A5017-157C-4503-811C-AEB8115C9BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D42AF8-BE62-4D8B-B81A-FBA7D860678E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28320" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,13 +60,13 @@
     <t>PLEASE ADD MORE ROWS DEPENDING ON THE NUMBER OF TRIALS PERFORMED!</t>
   </si>
   <si>
-    <t>Roulette Wheel Selection</t>
-  </si>
-  <si>
-    <t>Simulated Annealing</t>
-  </si>
-  <si>
     <t>(-1.145433153,52.95293399)-&gt; (-1.145507883,52.9477812)-&gt; (-1.145609889,52.9477858)-&gt; (-1.145636388,52.94684955)-&gt; (-1.145690671,52.94685244)-&gt; (-1.150109371,52.95305264)-&gt; (-1.150141015,52.9531317)-&gt; (-1.151862196,52.95518353)-&gt; (-1.15195954,52.9551382)-&gt; (-1.154890294,52.95789717)-&gt; (-1.154962613,52.95783755)-&gt; (-1.161471521,52.96241703)-&gt; (-1.161591582,52.96234443)-&gt; (-1.167161433,52.96539774)-&gt; (-1.167293755,52.96536109)-&gt; (-1.16872487,52.96736452)-&gt; (-1.171020223,52.96649391)-&gt; (-1.170386092,52.97007224)-&gt; (-1.173492294,52.97153812)-&gt; (-1.17393111,52.96984396)-&gt; (-1.177963728,52.97191709)-&gt; (-1.177915032,52.97197995)-&gt; (-1.178302754,52.98165789)-&gt; (-1.178425891,52.98162862)-&gt; (-1.182059044,52.98494506)-&gt; (-1.182174598,52.98489174)-&gt; (-1.189656902,52.98983922)-&gt; (-1.189810936,52.9897439)-&gt; (-1.190440075,52.98946349)-&gt; (-1.190095584,53.0061793)-&gt; (-1.187073068,53.01447405)-&gt; (-1.188588525,53.02886147)-&gt; (-1.195810134,53.03829709)-&gt; (-1.195940198,53.03826426)-&gt; (-1.195593988,52.99934798)-&gt; (-1.20070225,52.98899695)-&gt; (-1.206910611,52.98892155)-&gt; (-1.188354602,52.93726705)-&gt; (-1.188319437,52.93724225)-&gt; (-1.18359864,52.94266607)-&gt; (-1.183546896,52.9426433)-&gt; (-1.177029943,52.94388184)-&gt; (-1.165537726,52.94187653)-&gt; (-1.164820212,52.94183039)-&gt; (-1.156690934,52.94341645)-&gt; (-1.156672968,52.94337325)-&gt; (-1.150403925,52.94280418)-&gt; (-1.150355016,52.94279258)-&gt; (-1.153652801,52.93908363)-&gt; (-1.153700034,52.93909839)-&gt; (-1.15580115,52.93568516)-&gt; (-1.155700394,52.93565353)-&gt; (-1.15613964,52.9259259)-&gt; (-1.156206863,52.92592995)-&gt; (-1.157486782,52.91906101)-&gt; (-1.15755059,52.91906603)-&gt; (-1.158312479,52.91465125)-&gt; (-1.158368763,52.91465451)-&gt; (-1.170405757,52.9107112)-&gt; (-1.170502155,52.91072079)-&gt; (-1.174741611,52.90686429)-&gt; (-1.174823178,52.90687798)-&gt; (-1.176964723,52.9037277)-&gt; (-1.181267431,52.89698995)-&gt; (-1.18130033,52.89701826)-&gt; (-1.187911244,52.89694688)-&gt; (-1.193103522,52.89644113)-&gt; (-1.202236286,52.93218515)-&gt; (-1.202235069,52.93222985)-&gt; (-1.209010454,52.92787625)-&gt; (-1.215058081,52.9255317)-&gt; (-1.220052397,52.92285649)-&gt; (-1.220540036,52.9224778)-&gt; (-1.223295756,52.92126428)-&gt; (-1.22333023,52.92129065)-&gt; (-1.231344936,52.92260565)-&gt; (-1.23135823,52.92264385)-&gt; (-1.236302926,52.92152734)-&gt; (-1.236333018,52.92156178)-&gt; (-1.243110276,52.9203175)-&gt; (-1.243127724,52.92035495)-&gt; (-1.251433287,52.91954801)-&gt; (-1.251438912,52.91958705)</t>
+  </si>
+  <si>
+    <t>My own memory based selection method (Using a buffer of size n storing the last n heuristics to run and their resulting percentage change. Then using the average of each heuristics resulting percentage change (or the default score if a heuristic isn't present in the buffer) as the probability of picking that heuristic, similar to how RWS works)</t>
+  </si>
+  <si>
+    <t>Strictly Improving moves only</t>
   </si>
 </sst>
 </file>
@@ -338,14 +338,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,17 +668,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
       <c r="A11" s="9">
         <v>0</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>0.45730754157659198</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>0.48622964398645901</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>0.455724859810611</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>0.45730754157659198</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>0.45572659653167802</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>0.45731399792446398</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>0.48622964398645901</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
       <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>0.489180685906142</v>
       </c>
     </row>
@@ -794,7 +794,7 @@
       <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>0.455724859810611</v>
       </c>
     </row>
@@ -802,7 +802,7 @@
       <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>0.45572659653167802</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
       <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>0.455724859810611</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
       <c r="A22" s="6">
         <v>11</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>0.48622820718767701</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>0.48485900398983001</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
       <c r="A24" s="6">
         <v>13</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>0.455724859810611</v>
       </c>
     </row>
@@ -842,7 +842,7 @@
       <c r="A25" s="6">
         <v>14</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>0.467388756732455</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
       <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>0.48622820718767701</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>0.47614145860188301</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="A28" s="6">
         <v>17</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>0.45572659653167802</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="A29" s="6">
         <v>18</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>0.45572659653167802</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="A30" s="6">
         <v>19</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>0.45572659653167802</v>
       </c>
     </row>

--- a/Report/Tramstops85.xlsx
+++ b/Report/Tramstops85.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D42AF8-BE62-4D8B-B81A-FBA7D860678E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC2F98D-891F-401E-9634-D3F43D878813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28320" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
